--- a/src/xlsx/base_prueba.xlsx
+++ b/src/xlsx/base_prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SISTEMA CEL\BoxMaker_backend\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D20A99B-85A7-44BA-B8FD-EA8C84F4DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1662D-ACCB-4EB1-A0E7-ED6066DC12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="17">
   <si>
     <t>XX</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134:O134"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169:C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,8 +4983,1518 @@
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
       <c r="M142" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43499</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43500</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43501</v>
+      </c>
+      <c r="E145" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>43502</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>43503</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43504</v>
+      </c>
+      <c r="E148" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43505</v>
+      </c>
+      <c r="E149" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>43506</v>
+      </c>
+      <c r="E150" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E151" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43508</v>
+      </c>
+      <c r="E152" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43509</v>
+      </c>
+      <c r="E153" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E154" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43511</v>
+      </c>
+      <c r="E155" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43512</v>
+      </c>
+      <c r="E156" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E157" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43514</v>
+      </c>
+      <c r="E158" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E159" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E160" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43517</v>
+      </c>
+      <c r="E161" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43518</v>
+      </c>
+      <c r="E162" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E163" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>43520</v>
+      </c>
+      <c r="E164" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E165" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E166" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E167" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>43524</v>
+      </c>
+      <c r="E168" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E169" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43499</v>
+      </c>
+      <c r="E170" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>43500</v>
+      </c>
+      <c r="E171" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43501</v>
+      </c>
+      <c r="E172" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43502</v>
+      </c>
+      <c r="E173" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43503</v>
+      </c>
+      <c r="E174" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>43504</v>
+      </c>
+      <c r="E175" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43505</v>
+      </c>
+      <c r="E176" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43506</v>
+      </c>
+      <c r="E177" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E178" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43508</v>
+      </c>
+      <c r="E179" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>43509</v>
+      </c>
+      <c r="E180" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E181" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43511</v>
+      </c>
+      <c r="E182" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43512</v>
+      </c>
+      <c r="E183" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E184" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43514</v>
+      </c>
+      <c r="E185" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E187" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>43517</v>
+      </c>
+      <c r="E188" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>43518</v>
+      </c>
+      <c r="E189" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E190" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43520</v>
+      </c>
+      <c r="E191" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E192" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E193" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E194" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>43524</v>
+      </c>
+      <c r="E195" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E196" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>43499</v>
+      </c>
+      <c r="E197" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>43500</v>
+      </c>
+      <c r="E198" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>43501</v>
+      </c>
+      <c r="E199" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>43502</v>
+      </c>
+      <c r="E200" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>43503</v>
+      </c>
+      <c r="E201" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>43504</v>
+      </c>
+      <c r="E202" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>43505</v>
+      </c>
+      <c r="E203" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>43506</v>
+      </c>
+      <c r="E204" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E205" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>43508</v>
+      </c>
+      <c r="E206" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>43509</v>
+      </c>
+      <c r="E207" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E208" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43511</v>
+      </c>
+      <c r="E209" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43512</v>
+      </c>
+      <c r="E210" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E211" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>43514</v>
+      </c>
+      <c r="E212" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E213" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E214" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>43517</v>
+      </c>
+      <c r="E215" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43518</v>
+      </c>
+      <c r="E216" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E217" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>43520</v>
+      </c>
+      <c r="E218" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E219" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E220" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E221" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <v>43524</v>
+      </c>
+      <c r="E222" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E223" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2">
+        <v>43499</v>
+      </c>
+      <c r="E224" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <v>43500</v>
+      </c>
+      <c r="E225" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43501</v>
+      </c>
+      <c r="E226" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>43502</v>
+      </c>
+      <c r="E227" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <v>43503</v>
+      </c>
+      <c r="E228" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2">
+        <v>43504</v>
+      </c>
+      <c r="E229" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" s="2">
+        <v>43505</v>
+      </c>
+      <c r="E230" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43506</v>
+      </c>
+      <c r="E231" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E232" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" s="2">
+        <v>43508</v>
+      </c>
+      <c r="E233" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43509</v>
+      </c>
+      <c r="E234" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E235" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="2">
+        <v>43511</v>
+      </c>
+      <c r="E236" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43512</v>
+      </c>
+      <c r="E237" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43513</v>
+      </c>
+      <c r="E238" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43514</v>
+      </c>
+      <c r="E239" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="2">
+        <v>43515</v>
+      </c>
+      <c r="E240" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E241" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43517</v>
+      </c>
+      <c r="E242" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="2">
+        <v>43518</v>
+      </c>
+      <c r="E243" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E244" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43520</v>
+      </c>
+      <c r="E245" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" s="2">
+        <v>43521</v>
+      </c>
+      <c r="E246" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2">
+        <v>43522</v>
+      </c>
+      <c r="E247" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43523</v>
+      </c>
+      <c r="E248" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43524</v>
+      </c>
+      <c r="E249" s="1">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/xlsx/base_prueba.xlsx
+++ b/src/xlsx/base_prueba.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SISTEMA CEL\BoxMaker_backend\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KriZ1\Desktop\celdeploy\BoxMaker_backend\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE1662D-ACCB-4EB1-A0E7-ED6066DC12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05822A40-1AF7-41B2-BF52-7EE5F337DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$421</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="17">
   <si>
     <t>XX</t>
   </si>
@@ -218,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N249"/>
+  <dimension ref="A1:N485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169:C249"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -943,9 +946,6 @@
       <c r="D13" s="2">
         <v>43724</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
       <c r="H13" s="8">
         <v>123456</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>3</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>1</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>3</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>3</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>3</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>3</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>3</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>3</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>3</v>
       </c>
@@ -4982,7 +4982,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>123456</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
       </c>
@@ -4990,1514 +4993,5173 @@
         <v>0</v>
       </c>
       <c r="D142" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1997</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E147" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E148" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E153" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43724</v>
+      </c>
+      <c r="E154" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43724</v>
+      </c>
+      <c r="E155" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43726</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E157" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43720</v>
+      </c>
+      <c r="E158" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E163" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E164" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E166" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E167" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E168" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E169" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E170" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E175" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E176" s="1">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E177" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E178" s="1">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E179" s="1">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E180" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43773</v>
+      </c>
+      <c r="E181" s="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43782</v>
+      </c>
+      <c r="E182" s="1">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E183" s="1">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E184" s="1">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E185" s="1">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E186" s="1">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43780</v>
+      </c>
+      <c r="E187" s="1">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="2">
+        <v>43780</v>
+      </c>
+      <c r="E188" s="1">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E189" s="1">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E190" s="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E192" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43466</v>
+      </c>
+      <c r="E193" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E194" s="1">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E195" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E196" s="1">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>43479</v>
+      </c>
+      <c r="E197" s="1">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2">
+        <v>43479</v>
+      </c>
+      <c r="E198" s="1">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E199" s="1">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>43479</v>
+      </c>
+      <c r="E200" s="1">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E201" s="1">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E202" s="1">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E203" s="1">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E204" s="1">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E205" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E206" s="1">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E207" s="1">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E208" s="1">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E210" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>43483</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2">
+        <v>43483</v>
+      </c>
+      <c r="E213" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E214" s="1">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>43488</v>
+      </c>
+      <c r="E215" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>123456</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43486</v>
+      </c>
+      <c r="E216" s="1">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E217" s="1">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E218" s="1">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E219" s="1">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E220" s="1">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <v>43724</v>
+      </c>
+      <c r="E222" s="1">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43724</v>
+      </c>
+      <c r="E223" s="1">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2">
+        <v>43726</v>
+      </c>
+      <c r="E224" s="1">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="2">
+        <v>43720</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E226" s="1">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E227" s="1">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E228" s="1">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E230" s="1">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E231" s="1">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E234" s="1">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E235" s="1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E236" s="1">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43783</v>
+      </c>
+      <c r="E238" s="1">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43783</v>
+      </c>
+      <c r="E239" s="1">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E240" s="1">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43770</v>
+      </c>
+      <c r="E242" s="1">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E243" s="1">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E244" s="1">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43776</v>
+      </c>
+      <c r="E245" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" s="2">
+        <v>43466</v>
+      </c>
+      <c r="E246" s="1">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E247" s="1">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E248" s="1">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E249" s="1">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="2">
+        <v>43479</v>
+      </c>
+      <c r="E250" s="1">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E251" s="1">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E252" s="1">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E253" s="1">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E254" s="1">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E255" s="1">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E256" s="1">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E257" s="1">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E258" s="1">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" s="2">
+        <v>43488</v>
+      </c>
+      <c r="E259" s="1">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>654321</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="2">
+        <v>43488</v>
+      </c>
+      <c r="E260" s="1">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E261" s="1">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E262" s="1">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="2">
+        <v>43727</v>
+      </c>
+      <c r="E263" s="1">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E264" s="1">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="2">
+        <v>43734</v>
+      </c>
+      <c r="E265" s="1">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E266" s="1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E267" s="1">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E268" s="1">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E269" s="1">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" s="2">
+        <v>43717</v>
+      </c>
+      <c r="E271" s="1">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" s="2">
+        <v>43789</v>
+      </c>
+      <c r="E272" s="1">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E273" s="1">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274" s="2">
+        <v>43475</v>
+      </c>
+      <c r="E274" s="1">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="2">
+        <v>43475</v>
+      </c>
+      <c r="E275" s="1">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E276" s="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E277" s="1">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E278" s="1">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="2">
+        <v>43486</v>
+      </c>
+      <c r="E279" s="1">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="2">
+        <v>43489</v>
+      </c>
+      <c r="E280" s="1">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E281" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282" s="2">
+        <v>43715</v>
+      </c>
+      <c r="E282" s="1">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="2">
         <v>43498</v>
       </c>
-      <c r="E142" s="1">
-        <v>1</v>
-      </c>
-      <c r="M142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284" s="2">
         <v>43499</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E284" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="2">
         <v>43500</v>
       </c>
-      <c r="E144" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
+      <c r="E285" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="2">
         <v>43501</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E286" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="2">
         <v>43502</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E287" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288" s="2">
         <v>43503</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E288" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" s="2">
         <v>43504</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E289" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="2">
         <v>43505</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E290" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291" s="2">
         <v>43506</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E291" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292" s="2">
         <v>43507</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E292" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293" s="2">
         <v>43508</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E293" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294" s="2">
         <v>43509</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E294" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="2">
         <v>43510</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E295" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D296" s="2">
         <v>43511</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E296" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" s="2">
         <v>43512</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E297" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D298" s="2">
         <v>43513</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E298" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" s="2">
         <v>43514</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E299" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300" s="2">
         <v>43515</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E300" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301" s="2">
         <v>43516</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E301" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302" s="2">
         <v>43517</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E302" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303" s="2">
         <v>43518</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E303" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304" s="2">
         <v>43519</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E304" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305" s="2">
         <v>43520</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E305" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306" s="2">
         <v>43521</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E306" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307" s="2">
         <v>43522</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E307" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" s="2">
         <v>43523</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E308" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" s="2">
         <v>43524</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E309" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="2">
         <v>43498</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E310" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2">
         <v>43499</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E311" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" s="2">
         <v>43500</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E312" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" s="2">
         <v>43501</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E313" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314" s="2">
         <v>43502</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E314" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="2">
         <v>43503</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E315" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316" s="2">
         <v>43504</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E316" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" s="2">
         <v>43505</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E317" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" s="2">
         <v>43506</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E318" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="2">
         <v>43507</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E319" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" s="2">
         <v>43508</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E320" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" s="2">
         <v>43509</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E321" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D322" s="2">
         <v>43510</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E322" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" s="2">
         <v>43511</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E323" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>0</v>
+      </c>
+      <c r="D324" s="2">
         <v>43512</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E324" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" s="2">
         <v>43513</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E325" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D326" s="2">
         <v>43514</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E326" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327" s="2">
         <v>43515</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E327" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>0</v>
+      </c>
+      <c r="D328" s="2">
         <v>43516</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E328" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329" s="2">
         <v>43517</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E329" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330" s="2">
         <v>43518</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E330" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331" s="2">
         <v>43519</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E331" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" s="2">
         <v>43520</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E332" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B333" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333" s="2">
         <v>43521</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E333" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334" s="2">
         <v>43522</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E334" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" s="2">
         <v>43523</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E335" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336" s="2">
         <v>43524</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E336" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337" s="2">
         <v>43498</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E337" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B338" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338" s="2">
         <v>43499</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E338" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B339" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" s="2">
         <v>43500</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E339" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B340" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" s="2">
         <v>43501</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E340" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" s="2">
         <v>43502</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E341" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" s="2">
         <v>43503</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E342" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" s="2">
         <v>43504</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E343" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344" s="2">
         <v>43505</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E344" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" s="2">
         <v>43506</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E345" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346" s="2">
         <v>43507</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E346" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" s="2">
         <v>43508</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E347" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" s="2">
         <v>43509</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E348" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" s="2">
         <v>43510</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E349" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" s="2">
         <v>43511</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E350" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351" s="2">
         <v>43512</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E351" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352" s="2">
         <v>43513</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E352" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D353" s="2">
         <v>43514</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E353" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" s="2">
         <v>43515</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E354" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>0</v>
+      </c>
+      <c r="D355" s="2">
         <v>43516</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E355" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B356" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" s="2">
         <v>43517</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E356" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>0</v>
-      </c>
-      <c r="D216" s="2">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" s="2">
         <v>43518</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E357" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358" s="2">
         <v>43519</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E358" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" s="2">
         <v>43520</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E359" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>0</v>
+      </c>
+      <c r="D360" s="2">
         <v>43521</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E360" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361" s="2">
         <v>43522</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E361" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362" s="2">
         <v>43523</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E362" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" s="2">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" s="2">
         <v>43524</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E363" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364" s="2">
         <v>43498</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E364" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" s="2">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" s="2">
         <v>43499</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E365" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366" s="2">
         <v>43500</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E366" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" s="2">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B367" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367" s="2">
         <v>43501</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E367" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B368" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" t="s">
+        <v>0</v>
+      </c>
+      <c r="D368" s="2">
         <v>43502</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E368" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" s="2">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+      <c r="D369" s="2">
         <v>43503</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E369" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="2">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D370" s="2">
         <v>43504</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E370" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" s="2">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B371" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371" s="2">
         <v>43505</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E371" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B231" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>0</v>
-      </c>
-      <c r="D231" s="2">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C372" t="s">
+        <v>0</v>
+      </c>
+      <c r="D372" s="2">
         <v>43506</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E372" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>0</v>
-      </c>
-      <c r="D232" s="2">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B373" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C373" t="s">
+        <v>0</v>
+      </c>
+      <c r="D373" s="2">
         <v>43507</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E373" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B233" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" s="2">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>0</v>
+      </c>
+      <c r="D374" s="2">
         <v>43508</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E374" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>0</v>
-      </c>
-      <c r="D234" s="2">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B375" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C375" t="s">
+        <v>0</v>
+      </c>
+      <c r="D375" s="2">
         <v>43509</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E375" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" s="2">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376" s="2">
         <v>43510</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E376" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" s="2">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" t="s">
+        <v>0</v>
+      </c>
+      <c r="D377" s="2">
         <v>43511</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E377" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" s="2">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" t="s">
+        <v>0</v>
+      </c>
+      <c r="D378" s="2">
         <v>43512</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E378" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>0</v>
-      </c>
-      <c r="D238" s="2">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" t="s">
+        <v>0</v>
+      </c>
+      <c r="D379" s="2">
         <v>43513</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E379" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" t="s">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C380" t="s">
+        <v>0</v>
+      </c>
+      <c r="D380" s="2">
         <v>43514</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E380" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" s="2">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381" s="2">
         <v>43515</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E381" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" t="s">
-        <v>0</v>
-      </c>
-      <c r="D241" s="2">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C382" t="s">
+        <v>0</v>
+      </c>
+      <c r="D382" s="2">
         <v>43516</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E382" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C242" t="s">
-        <v>0</v>
-      </c>
-      <c r="D242" s="2">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383" s="2">
         <v>43517</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E383" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" s="2">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>0</v>
+      </c>
+      <c r="D384" s="2">
         <v>43518</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E384" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C244" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" s="2">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B385" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" t="s">
+        <v>0</v>
+      </c>
+      <c r="D385" s="2">
         <v>43519</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E385" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C245" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" s="2">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B386" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386" t="s">
+        <v>0</v>
+      </c>
+      <c r="D386" s="2">
         <v>43520</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E386" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" t="s">
-        <v>0</v>
-      </c>
-      <c r="D246" s="2">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B387" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387" s="2">
         <v>43521</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E387" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B247" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C247" t="s">
-        <v>0</v>
-      </c>
-      <c r="D247" s="2">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B388" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388" t="s">
+        <v>0</v>
+      </c>
+      <c r="D388" s="2">
         <v>43522</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E388" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>0</v>
-      </c>
-      <c r="D248" s="2">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B389" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389" t="s">
+        <v>0</v>
+      </c>
+      <c r="D389" s="2">
         <v>43523</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E389" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>0</v>
-      </c>
-      <c r="D249" s="2">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B390" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390" t="s">
+        <v>0</v>
+      </c>
+      <c r="D390" s="2">
         <v>43524</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E390" s="1">
         <v>108</v>
       </c>
     </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B391" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391" s="2">
+        <v>43586</v>
+      </c>
+      <c r="E391" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B392" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>0</v>
+      </c>
+      <c r="D392" s="2">
+        <v>43587</v>
+      </c>
+      <c r="E392" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B393" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" t="s">
+        <v>0</v>
+      </c>
+      <c r="D393" s="2">
+        <v>43588</v>
+      </c>
+      <c r="E393" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
+        <v>0</v>
+      </c>
+      <c r="D394" s="2">
+        <v>43589</v>
+      </c>
+      <c r="E394" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395" t="s">
+        <v>0</v>
+      </c>
+      <c r="D395" s="2">
+        <v>43590</v>
+      </c>
+      <c r="E395" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>0</v>
+      </c>
+      <c r="D396" s="2">
+        <v>43591</v>
+      </c>
+      <c r="E396" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C397" t="s">
+        <v>0</v>
+      </c>
+      <c r="D397" s="2">
+        <v>43592</v>
+      </c>
+      <c r="E397" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398" s="2">
+        <v>43593</v>
+      </c>
+      <c r="E398" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>0</v>
+      </c>
+      <c r="D399" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E399" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400" t="s">
+        <v>0</v>
+      </c>
+      <c r="D400" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E400" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B401" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" s="2">
+        <v>43596</v>
+      </c>
+      <c r="E401" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B402" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C402" t="s">
+        <v>0</v>
+      </c>
+      <c r="D402" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E402" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B403" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C403" t="s">
+        <v>0</v>
+      </c>
+      <c r="D403" s="2">
+        <v>43598</v>
+      </c>
+      <c r="E403" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B404" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" t="s">
+        <v>0</v>
+      </c>
+      <c r="D404" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E404" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B405" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C405" t="s">
+        <v>0</v>
+      </c>
+      <c r="D405" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E405" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B406" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C406" t="s">
+        <v>0</v>
+      </c>
+      <c r="D406" s="2">
+        <v>43601</v>
+      </c>
+      <c r="E406" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B407" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C407" t="s">
+        <v>0</v>
+      </c>
+      <c r="D407" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E407" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B408" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" t="s">
+        <v>0</v>
+      </c>
+      <c r="D408" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E408" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B409" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" t="s">
+        <v>0</v>
+      </c>
+      <c r="D409" s="2">
+        <v>43604</v>
+      </c>
+      <c r="E409" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B410" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" t="s">
+        <v>0</v>
+      </c>
+      <c r="D410" s="2">
+        <v>43605</v>
+      </c>
+      <c r="E410" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B411" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" t="s">
+        <v>0</v>
+      </c>
+      <c r="D411" s="2">
+        <v>43606</v>
+      </c>
+      <c r="E411" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C412" t="s">
+        <v>0</v>
+      </c>
+      <c r="D412" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E412" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B413" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C413" t="s">
+        <v>0</v>
+      </c>
+      <c r="D413" s="2">
+        <v>43608</v>
+      </c>
+      <c r="E413" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C414" t="s">
+        <v>0</v>
+      </c>
+      <c r="D414" s="2">
+        <v>43609</v>
+      </c>
+      <c r="E414" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B415" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C415" t="s">
+        <v>0</v>
+      </c>
+      <c r="D415" s="2">
+        <v>43610</v>
+      </c>
+      <c r="E415" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B416" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C416" t="s">
+        <v>0</v>
+      </c>
+      <c r="D416" s="2">
+        <v>43611</v>
+      </c>
+      <c r="E416" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B417" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" t="s">
+        <v>0</v>
+      </c>
+      <c r="D417" s="2">
+        <v>43612</v>
+      </c>
+      <c r="E417" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B418" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" t="s">
+        <v>0</v>
+      </c>
+      <c r="D418" s="2">
+        <v>43613</v>
+      </c>
+      <c r="E418" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B419" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" t="s">
+        <v>0</v>
+      </c>
+      <c r="D419" s="2">
+        <v>43614</v>
+      </c>
+      <c r="E419" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B420" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C420" t="s">
+        <v>0</v>
+      </c>
+      <c r="D420" s="2">
+        <v>43615</v>
+      </c>
+      <c r="E420" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B421" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" t="s">
+        <v>0</v>
+      </c>
+      <c r="D421" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E421" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B422" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422" t="s">
+        <v>0</v>
+      </c>
+      <c r="D422" s="2">
+        <v>43435</v>
+      </c>
+      <c r="E422" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B423" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423" t="s">
+        <v>0</v>
+      </c>
+      <c r="D423" s="2">
+        <v>43436</v>
+      </c>
+      <c r="E423" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B424" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424" t="s">
+        <v>0</v>
+      </c>
+      <c r="D424" s="2">
+        <v>43437</v>
+      </c>
+      <c r="E424" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425" t="s">
+        <v>0</v>
+      </c>
+      <c r="D425" s="2">
+        <v>43438</v>
+      </c>
+      <c r="E425" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B426" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C426" t="s">
+        <v>0</v>
+      </c>
+      <c r="D426" s="2">
+        <v>43439</v>
+      </c>
+      <c r="E426" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427" t="s">
+        <v>0</v>
+      </c>
+      <c r="D427" s="2">
+        <v>43440</v>
+      </c>
+      <c r="E427" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B428" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428" t="s">
+        <v>0</v>
+      </c>
+      <c r="D428" s="2">
+        <v>43441</v>
+      </c>
+      <c r="E428" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429" t="s">
+        <v>0</v>
+      </c>
+      <c r="D429" s="2">
+        <v>43442</v>
+      </c>
+      <c r="E429" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B430" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" t="s">
+        <v>0</v>
+      </c>
+      <c r="D430" s="2">
+        <v>43443</v>
+      </c>
+      <c r="E430" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" t="s">
+        <v>0</v>
+      </c>
+      <c r="D431" s="2">
+        <v>43444</v>
+      </c>
+      <c r="E431" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" t="s">
+        <v>0</v>
+      </c>
+      <c r="D432" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E432" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433" t="s">
+        <v>0</v>
+      </c>
+      <c r="D433" s="2">
+        <v>43446</v>
+      </c>
+      <c r="E433" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C434" t="s">
+        <v>0</v>
+      </c>
+      <c r="D434" s="2">
+        <v>43447</v>
+      </c>
+      <c r="E434" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B435" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" t="s">
+        <v>0</v>
+      </c>
+      <c r="D435" s="2">
+        <v>43448</v>
+      </c>
+      <c r="E435" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B436" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C436" t="s">
+        <v>0</v>
+      </c>
+      <c r="D436" s="2">
+        <v>43449</v>
+      </c>
+      <c r="E436" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B437" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" t="s">
+        <v>0</v>
+      </c>
+      <c r="D437" s="2">
+        <v>43450</v>
+      </c>
+      <c r="E437" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B438" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C438" t="s">
+        <v>0</v>
+      </c>
+      <c r="D438" s="2">
+        <v>43451</v>
+      </c>
+      <c r="E438" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B439" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" t="s">
+        <v>0</v>
+      </c>
+      <c r="D439" s="2">
+        <v>43452</v>
+      </c>
+      <c r="E439" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B440" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" t="s">
+        <v>0</v>
+      </c>
+      <c r="D440" s="2">
+        <v>43453</v>
+      </c>
+      <c r="E440" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B441" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441" t="s">
+        <v>0</v>
+      </c>
+      <c r="D441" s="2">
+        <v>43454</v>
+      </c>
+      <c r="E441" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B442" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C442" t="s">
+        <v>0</v>
+      </c>
+      <c r="D442" s="2">
+        <v>43455</v>
+      </c>
+      <c r="E442" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B443" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" t="s">
+        <v>0</v>
+      </c>
+      <c r="D443" s="2">
+        <v>43456</v>
+      </c>
+      <c r="E443" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B444" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" t="s">
+        <v>0</v>
+      </c>
+      <c r="D444" s="2">
+        <v>43457</v>
+      </c>
+      <c r="E444" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B445" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" t="s">
+        <v>0</v>
+      </c>
+      <c r="D445" s="2">
+        <v>43458</v>
+      </c>
+      <c r="E445" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B446" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C446" t="s">
+        <v>0</v>
+      </c>
+      <c r="D446" s="2">
+        <v>43459</v>
+      </c>
+      <c r="E446" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B447" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C447" t="s">
+        <v>0</v>
+      </c>
+      <c r="D447" s="2">
+        <v>43460</v>
+      </c>
+      <c r="E447" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" t="s">
+        <v>0</v>
+      </c>
+      <c r="D448" s="2">
+        <v>43461</v>
+      </c>
+      <c r="E448" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B449" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" t="s">
+        <v>0</v>
+      </c>
+      <c r="D449" s="2">
+        <v>43462</v>
+      </c>
+      <c r="E449" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B450" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" t="s">
+        <v>0</v>
+      </c>
+      <c r="D450" s="2">
+        <v>43463</v>
+      </c>
+      <c r="E450" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B451" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" t="s">
+        <v>0</v>
+      </c>
+      <c r="D451" s="2">
+        <v>43464</v>
+      </c>
+      <c r="E451" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B452" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" t="s">
+        <v>0</v>
+      </c>
+      <c r="D452" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E452" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B453" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" t="s">
+        <v>0</v>
+      </c>
+      <c r="D453" s="2">
+        <v>43466</v>
+      </c>
+      <c r="E453" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B454" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" t="s">
+        <v>0</v>
+      </c>
+      <c r="D454" s="2">
+        <v>43467</v>
+      </c>
+      <c r="E454" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B455" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C455" t="s">
+        <v>0</v>
+      </c>
+      <c r="D455" s="2">
+        <v>43468</v>
+      </c>
+      <c r="E455" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B456" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C456" t="s">
+        <v>0</v>
+      </c>
+      <c r="D456" s="2">
+        <v>43469</v>
+      </c>
+      <c r="E456" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B457" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C457" t="s">
+        <v>0</v>
+      </c>
+      <c r="D457" s="2">
+        <v>43470</v>
+      </c>
+      <c r="E457" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B458" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C458" t="s">
+        <v>0</v>
+      </c>
+      <c r="D458" s="2">
+        <v>43471</v>
+      </c>
+      <c r="E458" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B459" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" t="s">
+        <v>0</v>
+      </c>
+      <c r="D459" s="2">
+        <v>43472</v>
+      </c>
+      <c r="E459" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B460" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" t="s">
+        <v>0</v>
+      </c>
+      <c r="D460" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E460" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B461" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>0</v>
+      </c>
+      <c r="D461" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E461" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B462" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" t="s">
+        <v>0</v>
+      </c>
+      <c r="D462" s="2">
+        <v>43475</v>
+      </c>
+      <c r="E462" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B463" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C463" t="s">
+        <v>0</v>
+      </c>
+      <c r="D463" s="2">
+        <v>43476</v>
+      </c>
+      <c r="E463" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" t="s">
+        <v>0</v>
+      </c>
+      <c r="D464" s="2">
+        <v>43477</v>
+      </c>
+      <c r="E464" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C465" t="s">
+        <v>0</v>
+      </c>
+      <c r="D465" s="2">
+        <v>43478</v>
+      </c>
+      <c r="E465" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
+        <v>0</v>
+      </c>
+      <c r="D466" s="2">
+        <v>43479</v>
+      </c>
+      <c r="E466" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>0</v>
+      </c>
+      <c r="D467" s="2">
+        <v>43480</v>
+      </c>
+      <c r="E467" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C468" t="s">
+        <v>0</v>
+      </c>
+      <c r="D468" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E468" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>0</v>
+      </c>
+      <c r="D469" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E469" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" t="s">
+        <v>0</v>
+      </c>
+      <c r="D470" s="2">
+        <v>43483</v>
+      </c>
+      <c r="E470" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C471" t="s">
+        <v>0</v>
+      </c>
+      <c r="D471" s="2">
+        <v>43484</v>
+      </c>
+      <c r="E471" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" t="s">
+        <v>0</v>
+      </c>
+      <c r="D472" s="2">
+        <v>43485</v>
+      </c>
+      <c r="E472" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" t="s">
+        <v>0</v>
+      </c>
+      <c r="D473" s="2">
+        <v>43486</v>
+      </c>
+      <c r="E473" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" t="s">
+        <v>0</v>
+      </c>
+      <c r="D474" s="2">
+        <v>43487</v>
+      </c>
+      <c r="E474" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C475" t="s">
+        <v>0</v>
+      </c>
+      <c r="D475" s="2">
+        <v>43488</v>
+      </c>
+      <c r="E475" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C476" t="s">
+        <v>0</v>
+      </c>
+      <c r="D476" s="2">
+        <v>43489</v>
+      </c>
+      <c r="E476" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C477" t="s">
+        <v>0</v>
+      </c>
+      <c r="D477" s="2">
+        <v>43490</v>
+      </c>
+      <c r="E477" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C478" t="s">
+        <v>0</v>
+      </c>
+      <c r="D478" s="2">
+        <v>43491</v>
+      </c>
+      <c r="E478" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" t="s">
+        <v>0</v>
+      </c>
+      <c r="D479" s="2">
+        <v>43492</v>
+      </c>
+      <c r="E479" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B480" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" t="s">
+        <v>0</v>
+      </c>
+      <c r="D480" s="2">
+        <v>43493</v>
+      </c>
+      <c r="E480" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C481" t="s">
+        <v>0</v>
+      </c>
+      <c r="D481" s="2">
+        <v>43494</v>
+      </c>
+      <c r="E481" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B482" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C482" t="s">
+        <v>0</v>
+      </c>
+      <c r="D482" s="2">
+        <v>43495</v>
+      </c>
+      <c r="E482" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B483" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C483" t="s">
+        <v>0</v>
+      </c>
+      <c r="D483" s="2">
+        <v>43496</v>
+      </c>
+      <c r="E483" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B484" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" t="s">
+        <v>0</v>
+      </c>
+      <c r="D484" s="2">
+        <v>43497</v>
+      </c>
+      <c r="E484" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B485" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" t="s">
+        <v>0</v>
+      </c>
+      <c r="D485" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E485" s="1">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E421" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I120:L141">
     <sortCondition ref="K120:K141"/>
   </sortState>
